--- a/Datas/Tables/SkillClip.xlsx
+++ b/Datas/Tables/SkillClip.xlsx
@@ -34,7 +34,7 @@
     <author>25402</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,9 @@
     <t>SkillName</t>
   </si>
   <si>
+    <t>FrameCount</t>
+  </si>
+  <si>
     <t>FrameRate</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>技能总帧数</t>
+  </si>
+  <si>
     <t>技能帧数</t>
   </si>
   <si>
@@ -215,7 +221,7 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>20;CanSkillRelease|30;CanRotate</t>
+    <t>20;CanSkillRelease|30;CanRotate|</t>
   </si>
   <si>
     <t>20;动画路径;0.25|30;动画路径2;0.25</t>
@@ -240,13 +246,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -393,12 +404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -724,137 +735,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,27 +1187,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.5333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.0333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.95" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.2916666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.1833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.3416666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="15.7666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.95" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.2916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.1833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.3416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="15" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,16 +1217,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1223,27 +1235,30 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="15" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1252,73 +1267,78 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="15" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="1">
+    <row r="5" ht="15" spans="2:10">
+      <c r="B5" s="1">
         <v>1001</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Tables/SkillClip.xlsx
+++ b/Datas/Tables/SkillClip.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="SkillClips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -117,28 +132,389 @@
   </si>
   <si>
     <t>4;10;WeaponCollider/weapon1|</t>
+  </si>
+  <si>
+    <r>
+      <t>技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,159 +522,960 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="12" max="12" width="35.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="0">
+    <row r="5" spans="2:10">
+      <c r="B5">
         <v>1001</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>137</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>